--- a/genshin/449600616821366648_2020-10-24_14-00-01.xlsx
+++ b/genshin/449600616821366648_2020-10-24_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-21 19:10:50</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44276.79918981482</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -614,10 +628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:09:37</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44177.09001157407</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -693,10 +705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-31 07:53:43</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44135.32896990741</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>3647658528</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-10-28 20:20:29</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44132.84755787037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -833,10 +841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-10-27 20:51:03</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44131.86878472222</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -908,10 +914,8 @@
           <t>3642315615</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-10-27 05:19:40</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44131.22199074074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -979,10 +983,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-10-26 20:39:25</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44130.86070601852</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1046,10 +1048,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-10-25 18:11:19</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44129.7578587963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1117,10 +1117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-10-25 16:42:02</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44129.69585648148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1189,10 +1187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-10-25 14:25:29</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44129.60103009259</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1260,10 +1256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-10-25 13:27:01</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44129.56042824074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1331,10 +1325,8 @@
           <t>3635876106</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-10-25 12:00:35</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44129.50040509259</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1398,10 +1390,8 @@
           <t>3635849305</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-10-25 11:54:52</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44129.49643518519</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1469,10 +1459,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-10-25 11:51:46</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44129.49428240741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1548,10 +1536,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-10-25 10:40:33</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44129.44482638889</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1623,10 +1609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-10-25 09:26:30</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44129.39340277778</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -1694,10 +1678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-10-25 09:17:37</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44129.3872337963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1769,10 +1751,8 @@
           <t>3635034378</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-10-25 04:49:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44129.20075231481</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1844,10 +1824,8 @@
           <t>3632384450</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-10-25 03:06:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44129.12939814815</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1923,10 +1901,8 @@
           <t>3633060608</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-10-25 01:42:46</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44129.07136574074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2002,10 +1978,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-10-25 00:20:38</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44129.01432870371</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2069,10 +2043,8 @@
           <t>3634542410</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:50:00</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44128.99305555555</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2140,10 +2112,8 @@
           <t>3632384810</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:49:24</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44128.99263888889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2211,10 +2181,8 @@
           <t>3632362339</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:48:09</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44128.99177083333</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2282,10 +2250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:47:29</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44128.99130787037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2357,10 +2323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:34:58</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44128.98261574074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2424,10 +2388,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:30:18</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44128.979375</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2499,10 +2461,8 @@
           <t>3634410032</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-10-24 23:17:56</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44128.97078703704</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2578,10 +2538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:58:23</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44128.95721064815</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2653,10 +2611,8 @@
           <t>3634243291</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:43:39</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44128.94697916666</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2732,10 +2688,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:30:38</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44128.93793981482</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2799,10 +2753,8 @@
           <t>3632350251</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:22:12</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44128.93208333333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2870,10 +2822,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:21:49</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44128.93181712963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2937,10 +2887,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:19:35</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44128.9302662037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3004,10 +2952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:07:41</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44128.92200231482</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3075,10 +3021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:01:15</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44128.91753472222</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3142,10 +3086,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:40:37</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44128.90320601852</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3222,10 +3164,8 @@
           <t>3633932957</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:38:37</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44128.90181712963</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3301,10 +3241,8 @@
           <t>3633886727</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:27:07</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44128.89383101852</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3368,10 +3306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:23:31</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44128.89133101852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3435,10 +3371,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:11:31</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44128.88299768518</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3502,10 +3436,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:10:39</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44128.88239583333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3569,10 +3501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:09:36</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44128.88166666667</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3640,10 +3570,8 @@
           <t>3632384450</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-10-24 20:43:31</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44128.86355324074</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3719,10 +3647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-10-24 20:35:38</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44128.85807870371</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3792,10 +3718,8 @@
           <t>3633626269</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-10-24 20:23:54</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44128.84993055555</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3859,10 +3783,8 @@
           <t>3633554348</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-10-24 20:07:52</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44128.8387962963</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -3934,10 +3856,8 @@
           <t>3633489718</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:53:44</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44128.82898148148</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4001,10 +3921,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:39:17</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44128.81894675926</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4072,10 +3990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:30:26</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44128.81280092592</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4139,10 +4055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:28:13</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44128.81126157408</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4219,10 +4133,8 @@
           <t>3632446041</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:15:17</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44128.80228009259</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4298,10 +4210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:03:26</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44128.79405092593</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4373,10 +4283,8 @@
           <t>3633292182</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:03:24</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44128.79402777777</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4448,10 +4356,8 @@
           <t>3633282805</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:01:38</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44128.79280092593</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4523,10 +4429,8 @@
           <t>3633272814</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:59:29</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44128.79130787037</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4598,10 +4502,8 @@
           <t>3633229434</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:49:23</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44128.78429398148</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4665,10 +4567,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:43:48</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44128.78041666667</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4740,10 +4640,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:43:22</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44128.78011574074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4819,10 +4717,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:40:20</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44128.77800925926</v>
       </c>
       <c r="I61" t="n">
         <v>4</v>
@@ -4899,10 +4795,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:37:30</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44128.77604166666</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4970,10 +4864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:36:33</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44128.77538194445</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5045,10 +4937,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:36:15</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44128.77517361111</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5116,10 +5006,8 @@
           <t>3632356997</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:34:38</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44128.77405092592</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5183,10 +5071,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:32:52</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44128.77282407408</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5258,10 +5144,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:30:29</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44128.77116898148</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5325,10 +5209,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:29:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44128.77064814815</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5392,10 +5274,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:28:30</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44128.76979166667</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5463,10 +5343,8 @@
           <t>3632310288</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:27:55</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44128.76938657407</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5538,10 +5416,8 @@
           <t>3633144104</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:27:10</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44128.76886574074</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5609,10 +5485,8 @@
           <t>3633141551</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:25:13</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44128.76751157407</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5684,10 +5558,8 @@
           <t>3633099551</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:15:52</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44128.76101851852</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5763,10 +5635,8 @@
           <t>3632350251</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:15:43</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44128.76091435185</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5830,10 +5700,8 @@
           <t>3632956519</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:12:43</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44128.75883101852</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5905,10 +5773,8 @@
           <t>3633087757</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:12:10</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44128.75844907408</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5972,10 +5838,8 @@
           <t>3633084009</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:11:28</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44128.75796296296</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6051,10 +5915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:10:18</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44128.75715277778</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6122,10 +5984,8 @@
           <t>3633080258</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:08:35</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44128.75596064814</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6197,10 +6057,8 @@
           <t>3632352385</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:08:13</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44128.75570601852</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6268,10 +6126,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:07:30</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44128.75520833334</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6340,10 +6196,8 @@
           <t>3633060608</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:04:47</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44128.75332175926</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6420,10 +6274,8 @@
           <t>3633019133</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:56:26</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44128.74752314815</v>
       </c>
       <c r="I83" t="n">
         <v>6</v>
@@ -6491,10 +6343,8 @@
           <t>3632352385</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:50:46</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44128.74358796296</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6566,10 +6416,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:45:49</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44128.74015046296</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6645,10 +6493,8 @@
           <t>3632322233</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:45:21</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44128.73982638889</v>
       </c>
       <c r="I86" t="n">
         <v>4</v>
@@ -6720,10 +6566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:42:43</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44128.73799768519</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6787,10 +6631,8 @@
           <t>3632956519</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:40:46</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44128.73664351852</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6866,10 +6708,8 @@
           <t>3632956519</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:38:42</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44128.73520833333</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6941,10 +6781,8 @@
           <t>3632947669</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:35:41</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44128.73311342593</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7016,10 +6854,8 @@
           <t>3632945523</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:33:57</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44128.73190972222</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7083,10 +6919,8 @@
           <t>3632931982</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:31:06</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44128.72993055556</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7154,10 +6988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:28:03</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44128.7278125</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7221,10 +7053,8 @@
           <t>3632911079</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:25:59</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44128.72637731482</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7300,10 +7130,8 @@
           <t>3632384450</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:21:01</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44128.72292824074</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7379,10 +7207,8 @@
           <t>3632297634</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:18:52</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44128.72143518519</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7446,10 +7272,8 @@
           <t>3632297634</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:16:43</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44128.71994212963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7518,10 +7342,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:11:03</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44128.71600694444</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7585,10 +7407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:10:55</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44128.71591435185</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7656,10 +7476,8 @@
           <t>3632857374</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:10:46</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44128.71581018518</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7723,10 +7541,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:03:58</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44128.71108796296</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7790,10 +7606,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:56:24</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44128.70583333333</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7857,10 +7671,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:55:14</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44128.70502314815</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -7931,10 +7743,8 @@
           <t>3632795725</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:51:42</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44128.70256944445</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -7998,10 +7808,8 @@
           <t>3632790658</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:51:06</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44128.70215277778</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8073,10 +7881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:45:50</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44128.69849537037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8152,10 +7958,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:45:48</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44128.69847222222</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -8219,10 +8023,8 @@
           <t>3632762604</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:43:44</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44128.69703703704</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8303,10 +8105,8 @@
           <t>3632759093</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:42:50</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44128.69641203704</v>
       </c>
       <c r="I109" t="n">
         <v>6</v>
@@ -8378,10 +8178,8 @@
           <t>3632758233</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:42:01</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44128.69584490741</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8457,10 +8255,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:41:26</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44128.69543981482</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8531,10 +8327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:41:01</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44128.69515046296</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8606,10 +8400,8 @@
           <t>3632297634</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:39:47</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44128.69429398148</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8673,10 +8465,8 @@
           <t>3632747143</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:38:30</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44128.69340277778</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8744,10 +8534,8 @@
           <t>3632744074</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:37:59</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44128.69304398148</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8815,10 +8603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:36:59</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44128.69234953704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8886,10 +8672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:35:56</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44128.69162037037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8961,10 +8745,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:35:39</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44128.69142361111</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -9032,10 +8814,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:35:32</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44128.6913425926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9099,10 +8879,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:34:05</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44128.69033564815</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9166,10 +8944,8 @@
           <t>3632482761</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:33:59</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44128.6902662037</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9241,10 +9017,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:33:06</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44128.68965277778</v>
       </c>
       <c r="I122" t="n">
         <v>10</v>
@@ -9316,10 +9090,8 @@
           <t>3632314586</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:32:55</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44128.68952546296</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9391,10 +9163,8 @@
           <t>3632410451</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:31:57</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44128.68885416666</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9458,10 +9228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:28:53</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44128.68672453704</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9529,10 +9297,8 @@
           <t>3632542172</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:27:26</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44128.68571759259</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9606,10 +9372,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:25:24</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44128.68430555556</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9685,10 +9449,8 @@
           <t>3632710778</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:24:52</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44128.68393518519</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9752,10 +9514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:24:28</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44128.6836574074</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9823,10 +9583,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:23:41</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44128.68311342593</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9890,10 +9648,8 @@
           <t>3632701418</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:22:57</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44128.68260416666</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -9962,10 +9718,8 @@
           <t>3632701059</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:22:35</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44128.68234953703</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10033,10 +9787,8 @@
           <t>3632705145</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:22:16</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44128.68212962963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10104,10 +9856,8 @@
           <t>3632413933</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:20:48</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44128.68111111111</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10183,10 +9933,8 @@
           <t>3632692835</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:19:56</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44128.68050925926</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10254,10 +10002,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:19:44</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44128.68037037037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10321,10 +10067,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:17:28</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44128.6787962963</v>
       </c>
       <c r="I137" t="n">
         <v>7</v>
@@ -10392,10 +10136,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:17:03</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44128.67850694444</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10472,10 +10214,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:13:28</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44128.67601851852</v>
       </c>
       <c r="I139" t="n">
         <v>4</v>
@@ -10539,10 +10279,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:13:22</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44128.67594907407</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10610,10 +10348,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:13:08</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44128.67578703703</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10689,10 +10425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:10:53</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44128.67422453704</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10764,10 +10498,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:09:12</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44128.67305555556</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10843,10 +10575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:08:58</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44128.67289351852</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10914,10 +10644,8 @@
           <t>3632445171</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:08:36</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44128.67263888889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10993,10 +10721,8 @@
           <t>3632407811</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:08:32</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44128.67259259259</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11068,10 +10794,8 @@
           <t>3632654445</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:08:17</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44128.67241898148</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11143,10 +10867,8 @@
           <t>3632445171</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:05:50</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44128.67071759259</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11218,10 +10940,8 @@
           <t>3632651661</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:05:29</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44128.67047453704</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11289,10 +11009,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:04:24</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44128.66972222222</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11356,10 +11074,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:01:36</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44128.66777777778</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11423,10 +11139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:00:36</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44128.66708333333</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11502,10 +11216,8 @@
           <t>3632633183</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:00:19</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44128.66688657407</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11581,10 +11293,8 @@
           <t>3632310288</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:00:12</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44128.66680555556</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11656,10 +11366,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:00:09</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44128.66677083333</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11723,10 +11431,8 @@
           <t>3632310288</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:57:40</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44128.66504629629</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11790,10 +11496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:56:03</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44128.66392361111</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11869,10 +11573,8 @@
           <t>3632542391</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:55:51</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44128.66378472222</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11940,10 +11642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:55:36</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44128.66361111111</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12015,10 +11715,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:55:31</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44128.66355324074</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12090,10 +11788,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:51:43</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44128.66091435185</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12169,10 +11865,8 @@
           <t>3632610022</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:50:55</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44128.6603587963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12244,10 +11938,8 @@
           <t>3632531031</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:50:51</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44128.6603125</v>
       </c>
       <c r="I163" t="n">
         <v>9</v>
@@ -12315,10 +12007,8 @@
           <t>3632603807</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:50:41</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44128.66019675926</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12390,10 +12080,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:50:09</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44128.65982638889</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12473,10 +12161,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:48:58</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44128.65900462963</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12552,10 +12238,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:48:53</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44128.65894675926</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12619,10 +12303,8 @@
           <t>3632531031</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:45:54</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44128.656875</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12690,10 +12372,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:43:45</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44128.65538194445</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12769,10 +12449,8 @@
           <t>3632579917</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:42:58</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44128.65483796296</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12848,10 +12526,8 @@
           <t>3632531031</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:42:22</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44128.6544212963</v>
       </c>
       <c r="I171" t="n">
         <v>18</v>
@@ -12919,10 +12595,8 @@
           <t>3632578773</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:41:39</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44128.65392361111</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12994,10 +12668,8 @@
           <t>3632531031</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:41:11</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44128.65359953704</v>
       </c>
       <c r="I173" t="n">
         <v>31</v>
@@ -13065,10 +12737,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:40:53</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44128.6533912037</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13136,10 +12806,8 @@
           <t>3632577400</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:40:10</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44128.65289351852</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13215,10 +12883,8 @@
           <t>3632569427</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:39:45</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44128.65260416667</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13290,10 +12956,8 @@
           <t>3632576173</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:38:51</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44128.65197916667</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13357,10 +13021,8 @@
           <t>3632572285</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:38:40</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44128.65185185185</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13432,10 +13094,8 @@
           <t>3632568093</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:38:23</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44128.6516550926</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13507,10 +13167,8 @@
           <t>3632567888</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:38:11</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44128.6515162037</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13582,10 +13240,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:37:43</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44128.65119212963</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
@@ -13649,10 +13305,8 @@
           <t>3632570971</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:37:14</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44128.65085648148</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13724,10 +13378,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:35:38</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44128.64974537037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13796,10 +13448,8 @@
           <t>3632532216</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:35:10</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44128.64942129629</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -13879,10 +13529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:35:03</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44128.64934027778</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13950,10 +13598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:35:01</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44128.64931712963</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14021,10 +13667,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:34:19</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44128.64883101852</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14084,10 +13728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:33:45</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44128.6484375</v>
       </c>
       <c r="I188" t="n">
         <v>8</v>
@@ -14154,10 +13796,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:33:30</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44128.64826388889</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14233,10 +13873,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:32:36</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44128.64763888889</v>
       </c>
       <c r="I190" t="n">
         <v>9</v>
@@ -14303,10 +13941,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:32:24</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44128.6475</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14382,10 +14018,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:31:15</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44128.64670138889</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14460,10 +14094,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:31:00</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44128.64652777778</v>
       </c>
       <c r="I193" t="n">
         <v>75</v>
@@ -14527,10 +14159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:30:24</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44128.64611111111</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14606,10 +14236,8 @@
           <t>3632544587</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:30:22</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44128.64608796296</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14685,10 +14313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:29:59</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44128.64582175926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14761,10 +14387,8 @@
           <t>3632550308</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:29:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44128.64578703704</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14836,10 +14460,8 @@
           <t>3632485291</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:29:35</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44128.64554398148</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14915,10 +14537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:29:33</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44128.64552083334</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14990,10 +14610,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:29:20</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44128.64537037037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15061,10 +14679,8 @@
           <t>3632547332</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:29:10</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44128.64525462963</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15140,10 +14756,8 @@
           <t>3632539266</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:28:50</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44128.64502314815</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15219,10 +14833,8 @@
           <t>3632322233</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:28:44</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44128.6449537037</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15290,10 +14902,8 @@
           <t>3632542391</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:28:00</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44128.64444444444</v>
       </c>
       <c r="I204" t="n">
         <v>5</v>
@@ -15365,10 +14975,8 @@
           <t>3632542172</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:27:45</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44128.64427083333</v>
       </c>
       <c r="I205" t="n">
         <v>6</v>
@@ -15440,10 +15048,8 @@
           <t>3632532216</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:27:35</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44128.6441550926</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -15519,10 +15125,8 @@
           <t>3632541304</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:26:45</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44128.64357638889</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15594,10 +15198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:23:46</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44128.64150462963</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15665,10 +15267,8 @@
           <t>3632532216</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:23:38</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44128.64141203704</v>
       </c>
       <c r="I209" t="n">
         <v>8</v>
@@ -15736,10 +15336,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:23:17</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44128.64116898148</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15811,10 +15409,8 @@
           <t>3632531762</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:23:08</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44128.64106481482</v>
       </c>
       <c r="I211" t="n">
         <v>8</v>
@@ -15890,10 +15486,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:54</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44128.64090277778</v>
       </c>
       <c r="I212" t="n">
         <v>7</v>
@@ -15957,10 +15551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:45</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44128.64079861111</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16032,10 +15624,8 @@
           <t>3632531031</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:17</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44128.64047453704</v>
       </c>
       <c r="I214" t="n">
         <v>4</v>
@@ -16108,10 +15698,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:15</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44128.64045138889</v>
       </c>
       <c r="I215" t="n">
         <v>92</v>
@@ -16175,10 +15763,8 @@
           <t>3632523272</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:13</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44128.64042824074</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16254,10 +15840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:07</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44128.6403587963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16325,10 +15909,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:04</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44128.64032407408</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16392,10 +15974,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:20:58</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44128.63956018518</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16459,10 +16039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:20:11</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44128.63901620371</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16538,10 +16116,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:20:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44128.63890046296</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16610,10 +16186,8 @@
           <t>3632485291</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:19:32</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44128.63856481481</v>
       </c>
       <c r="I222" t="n">
         <v>4</v>
@@ -16685,10 +16259,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:18:40</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44128.63796296297</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16764,10 +16336,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:18:13</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44128.63765046297</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16843,10 +16413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:17:01</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44128.63681712963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16914,10 +16482,8 @@
           <t>3632482761</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:16:51</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44128.63670138889</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -16989,10 +16555,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:16:09</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44128.63621527778</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17068,10 +16632,8 @@
           <t>3632507357</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:15:46</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44128.63594907407</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17145,10 +16707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:14:00</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44128.63472222222</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17224,10 +16784,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:13:45</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44128.63454861111</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17302,10 +16860,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:12:24</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44128.63361111111</v>
       </c>
       <c r="I231" t="n">
         <v>3</v>
@@ -17381,10 +16937,8 @@
           <t>3632331239</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:12:11</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44128.63346064815</v>
       </c>
       <c r="I232" t="n">
         <v>4</v>
@@ -17454,10 +17008,8 @@
           <t>3632495301</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:09:39</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44128.63170138889</v>
       </c>
       <c r="I233" t="n">
         <v>25</v>
@@ -17533,10 +17085,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:09:20</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44128.63148148148</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17612,10 +17162,8 @@
           <t>3632329792</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:08:13</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44128.63070601852</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17675,10 +17223,8 @@
           <t>3632487241</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:07:21</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44128.63010416667</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17750,10 +17296,8 @@
           <t>3632482982</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:07:09</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44128.62996527777</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17827,10 +17371,8 @@
           <t>3632482761</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:54</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44128.62979166667</v>
       </c>
       <c r="I238" t="n">
         <v>35</v>
@@ -17894,10 +17436,8 @@
           <t>3632486143</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:08</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44128.62925925926</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17965,10 +17505,8 @@
           <t>3632405695</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:05:37</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44128.62890046297</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18032,10 +17570,8 @@
           <t>3632485291</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:05:14</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44128.62863425926</v>
       </c>
       <c r="I241" t="n">
         <v>18</v>
@@ -18107,10 +17643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:04:58</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44128.62844907407</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18178,10 +17712,8 @@
           <t>3632477339</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:04:53</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44128.6283912037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18253,10 +17785,8 @@
           <t>3632322256</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:04:45</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44128.62829861111</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18316,10 +17846,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:03:53</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44128.62769675926</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18396,10 +17924,8 @@
           <t>3632475689</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:03:10</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44128.62719907407</v>
       </c>
       <c r="I246" t="n">
         <v>4</v>
@@ -18471,10 +17997,8 @@
           <t>3632469048</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:02:55</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44128.62702546296</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18542,10 +18066,8 @@
           <t>3632468993</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:02:51</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44128.62697916666</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18609,10 +18131,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:02:36</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44128.62680555556</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18688,10 +18208,8 @@
           <t>3632472311</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:02:02</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44128.62641203704</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18759,10 +18277,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:01:52</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44128.62629629629</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18826,10 +18342,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:01:48</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44128.62625</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18906,10 +18420,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:01:33</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44128.62607638889</v>
       </c>
       <c r="I253" t="n">
         <v>21</v>
@@ -18985,10 +18497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:01:25</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44128.62598379629</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19060,10 +18570,8 @@
           <t>3632471268</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:00:54</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44128.625625</v>
       </c>
       <c r="I255" t="n">
         <v>5</v>
@@ -19135,10 +18643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:00:47</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44128.62554398148</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19206,10 +18712,8 @@
           <t>3632426866</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:00:26</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44128.62530092592</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19277,10 +18781,8 @@
           <t>3632331239</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:59:39</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44128.62475694445</v>
       </c>
       <c r="I258" t="n">
         <v>11</v>
@@ -19348,10 +18850,8 @@
           <t>3632458710</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:58:03</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44128.62364583334</v>
       </c>
       <c r="I259" t="n">
         <v>14</v>
@@ -19423,10 +18923,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:18</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44128.62243055556</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19494,10 +18992,8 @@
           <t>3632449251</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:14</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44128.62238425926</v>
       </c>
       <c r="I261" t="n">
         <v>4</v>
@@ -19561,10 +19057,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:55:16</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44128.62171296297</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19640,10 +19134,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:54:34</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44128.62122685185</v>
       </c>
       <c r="I263" t="n">
         <v>16</v>
@@ -19707,10 +19199,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:53:53</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44128.62075231481</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19774,10 +19264,8 @@
           <t>3632446041</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:52:44</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44128.6199537037</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19853,10 +19341,8 @@
           <t>3632443745</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:52:33</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44128.61982638889</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19920,10 +19406,8 @@
           <t>3632445171</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:51:52</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44128.61935185185</v>
       </c>
       <c r="I267" t="n">
         <v>50</v>
@@ -19999,10 +19483,8 @@
           <t>3632412726</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:50:59</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44128.61873842592</v>
       </c>
       <c r="I268" t="n">
         <v>10</v>
@@ -20066,10 +19548,8 @@
           <t>3632421153</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:50:40</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44128.61851851852</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20133,10 +19613,8 @@
           <t>3632433505</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:50:05</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44128.61811342592</v>
       </c>
       <c r="I270" t="n">
         <v>26</v>
@@ -20208,10 +19686,8 @@
           <t>3632436729</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:49:49</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44128.61792824074</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20289,10 +19765,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:49:29</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44128.61769675926</v>
       </c>
       <c r="I272" t="n">
         <v>123</v>
@@ -20356,10 +19830,8 @@
           <t>3632440863</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:49:29</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44128.61769675926</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20435,10 +19907,8 @@
           <t>3632435716</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:48:45</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44128.6171875</v>
       </c>
       <c r="I274" t="n">
         <v>5</v>
@@ -20514,10 +19984,8 @@
           <t>3632440150</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:48:43</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44128.61716435185</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20585,10 +20053,8 @@
           <t>3632410451</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:47:36</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44128.61638888889</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20660,10 +20126,8 @@
           <t>3632423653</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:46:30</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44128.615625</v>
       </c>
       <c r="I277" t="n">
         <v>7</v>
@@ -20731,10 +20195,8 @@
           <t>3632418936</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44128.61469907407</v>
       </c>
       <c r="I278" t="n">
         <v>50</v>
@@ -20802,10 +20264,8 @@
           <t>3632426866</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:06</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44128.61465277777</v>
       </c>
       <c r="I279" t="n">
         <v>4</v>
@@ -20881,10 +20341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:04</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44128.61462962963</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20952,10 +20410,8 @@
           <t>3632410451</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:00</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44128.61458333334</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21027,10 +20483,8 @@
           <t>3632418604</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:44:47</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44128.61443287037</v>
       </c>
       <c r="I282" t="n">
         <v>3</v>
@@ -21102,10 +20556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:44:33</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44128.61427083334</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21181,10 +20633,8 @@
           <t>3632421829</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:44:31</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44128.61424768518</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21248,10 +20698,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:44:28</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44128.61421296297</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21329,10 +20777,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:44:11</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44128.6140162037</v>
       </c>
       <c r="I286" t="n">
         <v>94</v>
@@ -21400,10 +20846,8 @@
           <t>3632417677</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:47</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44128.61373842593</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21467,10 +20911,8 @@
           <t>3632421153</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:46</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44128.61372685185</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21534,10 +20976,8 @@
           <t>3632417177</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:15</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44128.61336805556</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21601,10 +21041,8 @@
           <t>3632413982</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:59</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44128.61248842593</v>
       </c>
       <c r="I290" t="n">
         <v>3</v>
@@ -21672,10 +21110,8 @@
           <t>3632413933</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:55</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44128.61244212963</v>
       </c>
       <c r="I291" t="n">
         <v>11</v>
@@ -21743,10 +21179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:08</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44128.61189814815</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21810,10 +21244,8 @@
           <t>3632322233</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:40</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44128.61157407407</v>
       </c>
       <c r="I293" t="n">
         <v>10</v>
@@ -21885,10 +21317,8 @@
           <t>3632412726</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:32</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44128.61148148148</v>
       </c>
       <c r="I294" t="n">
         <v>3</v>
@@ -21965,10 +21395,8 @@
           <t>3632407811</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:16</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44128.61129629629</v>
       </c>
       <c r="I295" t="n">
         <v>40</v>
@@ -22036,10 +21464,8 @@
           <t>3632407711</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:10</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44128.61122685186</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -22107,10 +21533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:39:41</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44128.6108912037</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22185,10 +21609,8 @@
           <t>3632403676</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:39:24</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44128.61069444445</v>
       </c>
       <c r="I298" t="n">
         <v>11</v>
@@ -22264,10 +21686,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:39:15</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44128.61059027778</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22339,10 +21759,8 @@
           <t>3632328493</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:23</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44128.60998842592</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22414,10 +21832,8 @@
           <t>3632410451</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:04</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44128.60976851852</v>
       </c>
       <c r="I301" t="n">
         <v>7</v>
@@ -22485,10 +21901,8 @@
           <t>3632405695</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:00</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44128.60972222222</v>
       </c>
       <c r="I302" t="n">
         <v>75</v>
@@ -22564,10 +21978,8 @@
           <t>3632328493</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:37:51</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44128.60961805555</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22636,10 +22048,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:37:40</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44128.60949074074</v>
       </c>
       <c r="I304" t="n">
         <v>66</v>
@@ -22707,10 +22117,8 @@
           <t>3632397423</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:37:29</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44128.60936342592</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -22786,10 +22194,8 @@
           <t>3632397423</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:37:23</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44128.60929398148</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22865,10 +22271,8 @@
           <t>3632400938</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:26</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44128.60863425926</v>
       </c>
       <c r="I307" t="n">
         <v>5</v>
@@ -22944,10 +22348,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:35:44</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44128.60814814815</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23011,10 +22413,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:35:30</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44128.60798611111</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23082,10 +22482,8 @@
           <t>3632397423</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:34:43</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44128.60744212963</v>
       </c>
       <c r="I310" t="n">
         <v>11</v>
@@ -23149,10 +22547,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:45</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44128.60677083334</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23216,10 +22612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:44</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44128.60675925926</v>
       </c>
       <c r="I312" t="n">
         <v>6</v>
@@ -23295,10 +22689,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:36</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44128.60666666667</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23374,10 +22766,8 @@
           <t>3632329792</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:19</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44128.6064699074</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23453,10 +22843,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:12</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44128.60638888889</v>
       </c>
       <c r="I315" t="n">
         <v>3</v>
@@ -23532,10 +22920,8 @@
           <t>3632395232</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:21</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44128.60579861111</v>
       </c>
       <c r="I316" t="n">
         <v>5</v>
@@ -23603,10 +22989,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:13</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44128.60570601852</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23686,10 +23070,8 @@
           <t>3632345148</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:11</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44128.60568287037</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23753,10 +23135,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:10</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44128.6056712963</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23836,10 +23216,8 @@
           <t>3632384810</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:54</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44128.60548611111</v>
       </c>
       <c r="I320" t="n">
         <v>72</v>
@@ -23915,10 +23293,8 @@
           <t>3632384512</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:34</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44128.60525462963</v>
       </c>
       <c r="I321" t="n">
         <v>8</v>
@@ -23986,10 +23362,8 @@
           <t>3632384450</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:30</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44128.60520833333</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24053,10 +23427,8 @@
           <t>3632328493</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:50</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44128.60474537037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24128,10 +23500,8 @@
           <t>3632378750</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:32</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44128.60453703703</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24209,10 +23579,8 @@
           <t>3632385071</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:56</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44128.60412037037</v>
       </c>
       <c r="I325" t="n">
         <v>14</v>
@@ -24288,10 +23656,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:54</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44128.60409722223</v>
       </c>
       <c r="I326" t="n">
         <v>2</v>
@@ -24359,10 +23725,8 @@
           <t>3632374793</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:40</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44128.60393518519</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24440,10 +23804,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:04</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44128.60351851852</v>
       </c>
       <c r="I328" t="n">
         <v>5</v>
@@ -24519,10 +23881,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:57</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44128.6034375</v>
       </c>
       <c r="I329" t="n">
         <v>40</v>
@@ -24590,10 +23950,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:26</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44128.6030787037</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24661,10 +24019,8 @@
           <t>3632362339</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:23</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44128.60304398148</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24740,10 +24096,8 @@
           <t>3632376581</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:14</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44128.60293981482</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24820,10 +24174,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:09</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44128.60288194445</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -24899,10 +24251,8 @@
           <t>3632297634</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:41</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44128.60255787037</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24970,10 +24320,8 @@
           <t>3632372357</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:01</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44128.60209490741</v>
       </c>
       <c r="I335" t="n">
         <v>13</v>
@@ -25049,10 +24397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:26</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44128.60168981482</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25116,10 +24462,8 @@
           <t>3632364731</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:15</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44128.6015625</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25183,10 +24527,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:12</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44128.60152777778</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -25264,10 +24606,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:58</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44128.60136574074</v>
       </c>
       <c r="I339" t="n">
         <v>8</v>
@@ -25343,10 +24683,8 @@
           <t>3632328147</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:46</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44128.60122685185</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25422,10 +24760,8 @@
           <t>3632330843</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:44</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44128.60120370371</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25497,10 +24833,8 @@
           <t>3632328580</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:43</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44128.60119212963</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25576,10 +24910,8 @@
           <t>3632327785</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:34</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44128.60108796296</v>
       </c>
       <c r="I343" t="n">
         <v>8</v>
@@ -25647,10 +24979,8 @@
           <t>3632370962</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:31</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44128.60105324074</v>
       </c>
       <c r="I344" t="n">
         <v>29</v>
@@ -25726,10 +25056,8 @@
           <t>3632370947</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:31</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44128.60105324074</v>
       </c>
       <c r="I345" t="n">
         <v>6</v>
@@ -25805,10 +25133,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:29</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44128.60103009259</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25872,10 +25198,8 @@
           <t>3632328147</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:25</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44128.6009837963</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25951,10 +25275,8 @@
           <t>3632328229</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:17</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44128.60089120371</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26030,10 +25352,8 @@
           <t>3632328055</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:06</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44128.60076388889</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26109,10 +25429,8 @@
           <t>3632328412</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:00</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44128.60069444445</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26195,10 +25513,8 @@
           <t>3632363164</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:39</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44128.60045138889</v>
       </c>
       <c r="I351" t="n">
         <v>261</v>
@@ -26262,10 +25578,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:37</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44128.60042824074</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26341,10 +25655,8 @@
           <t>3632362898</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:21</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44128.60024305555</v>
       </c>
       <c r="I353" t="n">
         <v>66</v>
@@ -26412,10 +25724,8 @@
           <t>3632362828</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:17</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44128.60019675926</v>
       </c>
       <c r="I354" t="n">
         <v>5</v>
@@ -26479,10 +25789,8 @@
           <t>3632362553</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:58</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44128.59997685185</v>
       </c>
       <c r="I355" t="n">
         <v>10</v>
@@ -26546,10 +25854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:46</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44128.59983796296</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26613,10 +25919,8 @@
           <t>3632362339</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:45</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44128.59982638889</v>
       </c>
       <c r="I357" t="n">
         <v>5</v>
@@ -26684,10 +25988,8 @@
           <t>3632362269</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:40</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44128.59976851852</v>
       </c>
       <c r="I358" t="n">
         <v>3</v>
@@ -26751,10 +26053,8 @@
           <t>3632366995</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:25</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44128.59959490741</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26830,10 +26130,8 @@
           <t>3632328229</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:25</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44128.59959490741</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26905,10 +26203,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:16</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44128.59949074074</v>
       </c>
       <c r="I361" t="n">
         <v>5</v>
@@ -26972,10 +26268,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:16</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44128.59949074074</v>
       </c>
       <c r="I362" t="n">
         <v>9</v>
@@ -27047,10 +26341,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:10</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44128.5994212963</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27114,10 +26406,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:23</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44128.59887731481</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27181,10 +26471,8 @@
           <t>3632360856</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:12</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44128.59875</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27256,10 +26544,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:09</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44128.59871527777</v>
       </c>
       <c r="I366" t="n">
         <v>4</v>
@@ -27336,10 +26622,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:01</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44128.59862268518</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -27407,10 +26691,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:59</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44128.59859953704</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27474,10 +26756,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:56</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44128.59856481481</v>
       </c>
       <c r="I369" t="n">
         <v>3</v>
@@ -27549,10 +26829,8 @@
           <t>3632365362</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:45</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44128.5984375</v>
       </c>
       <c r="I370" t="n">
         <v>3</v>
@@ -27620,10 +26898,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:45</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44128.5984375</v>
       </c>
       <c r="I371" t="n">
         <v>3</v>
@@ -27703,10 +26979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:32</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44128.59828703704</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27776,10 +27050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:25</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44128.59820601852</v>
       </c>
       <c r="I373" t="n">
         <v>28</v>
@@ -27855,10 +27127,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:24</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44128.59819444444</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -27934,10 +27204,8 @@
           <t>3632356997</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:20</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44128.59814814815</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -28013,10 +27281,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:20:54</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44128.59784722222</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -28092,10 +27358,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:20:48</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44128.59777777778</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -28163,10 +27427,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:20:34</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44128.59761574074</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -28243,10 +27505,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:20:24</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44128.5975</v>
       </c>
       <c r="I379" t="n">
         <v>12</v>
@@ -28324,10 +27584,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:20:23</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44128.59748842593</v>
       </c>
       <c r="I380" t="n">
         <v>3</v>
@@ -28399,10 +27657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:20:10</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44128.59733796296</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28478,10 +27734,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:20:00</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44128.59722222222</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28545,10 +27799,8 @@
           <t>3632355589</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:19:50</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44128.59710648148</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28608,10 +27860,8 @@
           <t>3632328493</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:19:34</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44128.5969212963</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28679,10 +27929,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:19:29</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44128.59686342593</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28746,10 +27994,8 @@
           <t>3632353016</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:19:16</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44128.59671296296</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28817,10 +28063,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:19:16</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44128.59671296296</v>
       </c>
       <c r="I387" t="n">
         <v>4</v>
@@ -28896,10 +28140,8 @@
           <t>3632344976</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:19:12</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44128.59666666666</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28971,10 +28213,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:19:08</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44128.59662037037</v>
       </c>
       <c r="I389" t="n">
         <v>8</v>
@@ -29042,10 +28282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:19:02</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44128.59655092593</v>
       </c>
       <c r="I390" t="n">
         <v>6</v>
@@ -29113,10 +28351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:18:52</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44128.59643518519</v>
       </c>
       <c r="I391" t="n">
         <v>189</v>
@@ -29188,10 +28424,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:18:43</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44128.59633101852</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29255,10 +28489,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:18:43</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44128.59633101852</v>
       </c>
       <c r="I393" t="n">
         <v>24</v>
@@ -29335,10 +28567,8 @@
           <t>3632347429</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:18:42</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44128.59631944444</v>
       </c>
       <c r="I394" t="n">
         <v>39</v>
@@ -29410,10 +28640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:18:39</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44128.59628472223</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29481,10 +28709,8 @@
           <t>3632352385</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:18:36</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44128.59625</v>
       </c>
       <c r="I396" t="n">
         <v>31</v>
@@ -29552,10 +28778,8 @@
           <t>3632328055</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:18:27</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44128.59614583333</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29631,10 +28855,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:17:36</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44128.59555555556</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29698,10 +28920,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:17:02</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44128.59516203704</v>
       </c>
       <c r="I399" t="n">
         <v>4</v>
@@ -29777,10 +28997,8 @@
           <t>3632350251</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:16:29</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44128.59478009259</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29844,10 +29062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:16:21</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44128.5946875</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29919,10 +29135,8 @@
           <t>3632345168</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:16:21</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44128.5946875</v>
       </c>
       <c r="I402" t="n">
         <v>52</v>
@@ -29998,10 +29212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:16:20</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44128.59467592592</v>
       </c>
       <c r="I403" t="n">
         <v>25</v>
@@ -30069,10 +29281,8 @@
           <t>3632345148</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:16:20</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44128.59467592592</v>
       </c>
       <c r="I404" t="n">
         <v>12</v>
@@ -30140,10 +29350,8 @@
           <t>3632338873</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:15:53</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44128.59436342592</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30211,10 +29419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:15:42</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44128.59423611111</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30282,10 +29488,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:15:21</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44128.59399305555</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30357,10 +29561,8 @@
           <t>3632327785</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:15:11</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44128.59387731482</v>
       </c>
       <c r="I408" t="n">
         <v>9</v>
@@ -30432,10 +29634,8 @@
           <t>3632329792</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:15:10</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44128.59386574074</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30495,10 +29695,8 @@
           <t>3632338614</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:14:51</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44128.59364583333</v>
       </c>
       <c r="I410" t="n">
         <v>15</v>
@@ -30574,10 +29772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:14:41</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44128.59353009259</v>
       </c>
       <c r="I411" t="n">
         <v>58</v>
@@ -30649,10 +29845,8 @@
           <t>3632327979</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:14:34</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44128.59344907408</v>
       </c>
       <c r="I412" t="n">
         <v>4</v>
@@ -30712,10 +29906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:14:30</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44128.59340277778</v>
       </c>
       <c r="I413" t="n">
         <v>157</v>
@@ -30783,10 +29975,8 @@
           <t>3632338270</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:14:30</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44128.59340277778</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30862,10 +30052,8 @@
           <t>3632327785</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:14:29</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44128.59339120371</v>
       </c>
       <c r="I415" t="n">
         <v>5</v>
@@ -30941,10 +30129,8 @@
           <t>3632333181</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:14:22</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44128.59331018518</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31020,10 +30206,8 @@
           <t>3632330843</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:14:11</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44128.59318287037</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31099,10 +30283,8 @@
           <t>3632328147</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:13:31</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44128.59271990741</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31178,10 +30360,8 @@
           <t>3632327785</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:13:25</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44128.59265046296</v>
       </c>
       <c r="I419" t="n">
         <v>10</v>
@@ -31249,10 +30429,8 @@
           <t>3632304631</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:13:08</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44128.59245370371</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31320,10 +30498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:13:07</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44128.59244212963</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31391,10 +30567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:13:06</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44128.59243055555</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31462,10 +30636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:13:00</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44128.59236111111</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31533,10 +30705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:12:48</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44128.59222222222</v>
       </c>
       <c r="I424" t="n">
         <v>2</v>
@@ -31600,10 +30770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:12:22</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44128.5919212963</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31671,10 +30839,8 @@
           <t>3632331239</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:12:19</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44128.59188657408</v>
       </c>
       <c r="I426" t="n">
         <v>18</v>
@@ -31750,10 +30916,8 @@
           <t>3632328039</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:12:06</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44128.59173611111</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31825,10 +30989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:12:03</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44128.59170138889</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31896,10 +31058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:11:49</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44128.59153935185</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31973,10 +31133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:11:28</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44128.5912962963</v>
       </c>
       <c r="I430" t="n">
         <v>893</v>
@@ -32041,10 +31199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:11:23</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44128.59123842593</v>
       </c>
       <c r="I431" t="n">
         <v>22</v>
@@ -32108,10 +31264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:11:11</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44128.59109953704</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -32171,10 +31325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:11:03</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44128.59100694444</v>
       </c>
       <c r="I433" t="n">
         <v>319</v>
@@ -32246,10 +31398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:10:54</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44128.59090277777</v>
       </c>
       <c r="I434" t="n">
         <v>105</v>
@@ -32313,10 +31463,8 @@
           <t>3632314586</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:10:42</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44128.59076388889</v>
       </c>
       <c r="I435" t="n">
         <v>12</v>
@@ -32392,10 +31540,8 @@
           <t>3632310288</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:10:31</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44128.59063657407</v>
       </c>
       <c r="I436" t="n">
         <v>3</v>
@@ -32471,10 +31617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:09:41</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44128.59005787037</v>
       </c>
       <c r="I437" t="n">
         <v>3</v>
@@ -32546,10 +31690,8 @@
           <t>3632314586</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:09:31</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44128.58994212963</v>
       </c>
       <c r="I438" t="n">
         <v>2</v>
@@ -32625,10 +31767,8 @@
           <t>3632309863</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:08:54</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44128.58951388889</v>
       </c>
       <c r="I439" t="n">
         <v>2</v>
@@ -32704,10 +31844,8 @@
           <t>3632314586</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:08:40</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44128.58935185185</v>
       </c>
       <c r="I440" t="n">
         <v>4</v>
@@ -32783,10 +31921,8 @@
           <t>3632314586</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:08:26</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44128.58918981482</v>
       </c>
       <c r="I441" t="n">
         <v>3</v>
@@ -32862,10 +31998,8 @@
           <t>3632322256</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:08:17</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44128.58908564815</v>
       </c>
       <c r="I442" t="n">
         <v>23</v>
@@ -32930,10 +32064,8 @@
           <t>3632322233</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:08:16</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44128.58907407407</v>
       </c>
       <c r="I443" t="n">
         <v>193</v>
@@ -32993,10 +32125,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:07:31</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44128.58855324074</v>
       </c>
       <c r="I444" t="n">
         <v>7</v>
@@ -33072,10 +32202,8 @@
           <t>3632310288</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:07:09</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44128.58829861111</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33151,10 +32279,8 @@
           <t>3632304631</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:06:57</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44128.58815972223</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33218,10 +32344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:06:50</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44128.5880787037</v>
       </c>
       <c r="I447" t="n">
         <v>17</v>
@@ -33297,10 +32421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:06:43</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44128.58799768519</v>
       </c>
       <c r="I448" t="n">
         <v>6</v>
@@ -33374,10 +32496,8 @@
           <t>3632315243</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:06:03</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44128.58753472222</v>
       </c>
       <c r="I449" t="n">
         <v>18</v>
@@ -33441,10 +32561,8 @@
           <t>3632309863</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:50</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44128.58738425926</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33520,10 +32638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:48</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44128.58736111111</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33587,10 +32703,8 @@
           <t>3632304631</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:27</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44128.58711805556</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33658,10 +32772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:27</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44128.58711805556</v>
       </c>
       <c r="I453" t="n">
         <v>24</v>
@@ -33729,10 +32841,8 @@
           <t>3632304614</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:26</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44128.58710648148</v>
       </c>
       <c r="I454" t="n">
         <v>5</v>
@@ -33800,10 +32910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:19</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44128.58702546296</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33879,10 +32987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:11</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44128.58693287037</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33946,10 +33052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:06</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44128.586875</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34025,10 +33129,8 @@
           <t>3632310288</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:04</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44128.58685185185</v>
       </c>
       <c r="I458" t="n">
         <v>3</v>
@@ -34092,10 +33194,8 @@
           <t>3632304215</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:05:01</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44128.58681712963</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34163,10 +33263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:04:51</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44128.58670138889</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34230,10 +33328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:04:51</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44128.58670138889</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34297,10 +33393,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:04:34</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44128.58650462963</v>
       </c>
       <c r="I462" t="n">
         <v>46</v>
@@ -34376,10 +33470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:04:26</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44128.58641203704</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34443,10 +33535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:04:10</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44128.58622685185</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34511,10 +33601,8 @@
           <t>3632310288</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:03:56</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44128.58606481482</v>
       </c>
       <c r="I465" t="n">
         <v>104</v>
@@ -34586,10 +33674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:03:45</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44128.5859375</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34653,10 +33739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:03:28</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44128.58574074074</v>
       </c>
       <c r="I467" t="n">
         <v>2</v>
@@ -34720,10 +33804,8 @@
           <t>3632299550</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:03:11</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44128.58554398148</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34795,10 +33877,8 @@
           <t>3632299510</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:03:09</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44128.58552083333</v>
       </c>
       <c r="I469" t="n">
         <v>13</v>
@@ -34874,10 +33954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:03:05</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44128.58547453704</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34945,10 +34023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:03:04</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44128.58546296296</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35016,10 +34092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:02:55</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44128.5853587963</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -35095,10 +34169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:02:39</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44128.58517361111</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35170,10 +34242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:02:34</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44128.58511574074</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35245,10 +34315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:02:24</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44128.585</v>
       </c>
       <c r="I475" t="n">
         <v>19</v>
@@ -35324,10 +34392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:02:17</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44128.58491898148</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35403,10 +34469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:02:15</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44128.58489583333</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35478,10 +34542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:02:14</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44128.58488425926</v>
       </c>
       <c r="I478" t="n">
         <v>103</v>
@@ -35545,10 +34607,8 @@
           <t>3632297634</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:59</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44128.58471064815</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35612,10 +34672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:51</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44128.58461805555</v>
       </c>
       <c r="I480" t="n">
         <v>187</v>
@@ -35683,10 +34741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:29</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44128.58436342593</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35754,10 +34810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:28</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44128.58435185185</v>
       </c>
       <c r="I482" t="n">
         <v>153</v>
@@ -35825,10 +34879,8 @@
           <t>3632297634</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:16</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44128.58421296296</v>
       </c>
       <c r="I483" t="n">
         <v>37</v>
@@ -35905,10 +34957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:11</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44128.58415509259</v>
       </c>
       <c r="I484" t="n">
         <v>14</v>
@@ -35972,10 +35022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:08</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44128.58412037037</v>
       </c>
       <c r="I485" t="n">
         <v>11</v>
@@ -36051,10 +35099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:01</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44128.58403935185</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -36122,10 +35168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:01:00</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44128.58402777778</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -36189,10 +35233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:51</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44128.58392361111</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -36252,10 +35294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:49</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44128.58390046296</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36323,10 +35363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:44</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44128.58384259259</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36394,10 +35432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:41</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44128.58380787037</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36474,10 +35510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:36</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44128.58375</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36549,10 +35583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:36</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44128.58375</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36620,10 +35652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:29</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44128.58366898148</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36691,10 +35721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:29</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44128.58366898148</v>
       </c>
       <c r="I495" t="n">
         <v>1000</v>
@@ -36758,10 +35786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:00:23</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44128.58359953704</v>
       </c>
       <c r="I496" t="n">
         <v>410</v>
